--- a/biology/Botanique/Trèfle_jaunâtre/Trèfle_jaunâtre.xlsx
+++ b/biology/Botanique/Trèfle_jaunâtre/Trèfle_jaunâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_jaun%C3%A2tre</t>
+          <t>Trèfle_jaunâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium ochroleucon
 Le Trèfle jaunâtre  (Trifolium ochroleucon Huds.) est une plante à fleurs jaune pâle, appartenant au genre Trifolium et à la famille des Fabacées (ou Légumineuses). On peut assez facilement le confondre avec Trifolium montanum, d'autant que les deux espèces se rencontrent souvent en zone montagneuse, mais T. montanum a une inflorescence à pédoncule assez long, tandis que l'inflorescence de T. ochroleucon est presque sessile, portée par un minuscule pédoncule au-dessus des feuilles supérieures.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_jaun%C3%A2tre</t>
+          <t>Trèfle_jaunâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Assez commun dans toute l'Europe à l'exception du nord, présent aussi en Asie occidentale, ce trèfle pousse en plaine ou en altitude jusqu'à 2000 m. Il préfère les sols calcaires, moyennement humides et ensoleillés. On le rencontre dans les prés et au bord des routes ou des chemins. C'est une plante vivace qui fleurit de juin à août.
-Morphologie générale et végétative
-Plante herbacée de petite taille (20 à 40 cm), velue, à tige érigée. Stipules longues et minces. Feuilles à trois folioles velues, oblongues, à extrémité plus ou moins pointue.
-Morphologie florale
-Fleurs hermaphrodites groupées en têtes globuleuses portées par un très court pédoncule. Elles sont presque toujours d'un jaune très pâle, plus rarement rosâtres. Calice velu à 10 nervures et à 5 dents inégales. Pollinisation par les insectes.
-Fruit et graines
-Le fruit est une petite gousse incluse dans le calice. Dissémination épizoochore.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez commun dans toute l'Europe à l'exception du nord, présent aussi en Asie occidentale, ce trèfle pousse en plaine ou en altitude jusqu'à 2000 m. Il préfère les sols calcaires, moyennement humides et ensoleillés. On le rencontre dans les prés et au bord des routes ou des chemins. C'est une plante vivace qui fleurit de juin à août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trèfle_jaunâtre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_jaun%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée de petite taille (20 à 40 cm), velue, à tige érigée. Stipules longues et minces. Feuilles à trois folioles velues, oblongues, à extrémité plus ou moins pointue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trèfle_jaunâtre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_jaun%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites groupées en têtes globuleuses portées par un très court pédoncule. Elles sont presque toujours d'un jaune très pâle, plus rarement rosâtres. Calice velu à 10 nervures et à 5 dents inégales. Pollinisation par les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trèfle_jaunâtre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_jaun%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite gousse incluse dans le calice. Dissémination épizoochore.
 </t>
         </is>
       </c>
